--- a/KeywordSel/TestSuite&Testcases/TestSuite1Data.xlsx
+++ b/KeywordSel/TestSuite&Testcases/TestSuite1Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88F4619-E9A6-48B3-8C4F-1E621CA85521}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1024E8F-A2AE-4902-95EF-1956DEF1504E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,9 +127,6 @@
     <t>TC-2</t>
   </si>
   <si>
-    <t>Reuse_TC|TC-1|TS04|TS06|Y</t>
-  </si>
-  <si>
     <t>Sreenivas</t>
   </si>
   <si>
@@ -157,22 +154,25 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Reuse_TC|TC-2|TS02|TS05|N</t>
-  </si>
-  <si>
     <t>ReuseTC3</t>
   </si>
   <si>
     <t>ReuseTestTC1</t>
   </si>
   <si>
-    <t>Reuse_TC|TC-3|TS04|TS06|Y</t>
-  </si>
-  <si>
     <t>AR</t>
   </si>
   <si>
     <t>State</t>
+  </si>
+  <si>
+    <t>Reuse_TC|TestCases|TC-1|TS04|TS06|Y</t>
+  </si>
+  <si>
+    <t>Reuse_TC|TestCases|TC-2|TS02|TS05|N</t>
+  </si>
+  <si>
+    <t>Reuse_TC|TestCases|TC-3|TS04|TS06|Y</t>
   </si>
 </sst>
 </file>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -750,7 +750,7 @@
         <v>33</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -772,7 +772,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -805,7 +805,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -838,78 +838,78 @@
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
         <v>18</v>
@@ -920,24 +920,24 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -945,15 +945,15 @@
         <v>26</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>31</v>
@@ -964,13 +964,13 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
